--- a/forwardprimer-v3_29.xlsx
+++ b/forwardprimer-v3_29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_29" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2689-ACTGAGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGAGATTCGTCGGCAGCGTC</t>
+    <t>F2689-AAGGTTCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2690-AACTCCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCACAATCGTCGGCAGCGTC</t>
+    <t>F2690-TACTCACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2691-AAGTACGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACGAGGTCGTCGGCAGCGTC</t>
+    <t>F2691-GGTCTGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCTGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2692-TCCATGAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGAGCATCGTCGGCAGCGTC</t>
+    <t>F2692-ACTCTCCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2693-ATGCTACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTACATGTCGTCGGCAGCGTC</t>
+    <t>F2693-ACAGACTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGACTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2694-AGGTAGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGAACCTCGTCGGCAGCGTC</t>
+    <t>F2694-CGTTGACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2695-CCTACAACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACAACACTCGTCGGCAGCGTC</t>
+    <t>F2695-AAGAACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2696-ATGGACTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGACTTGTTCGTCGGCAGCGTC</t>
+    <t>F2696-GGAGTACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2697-GAAGGTTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTTCTATCGTCGGCAGCGTC</t>
+    <t>F2697-TCCAGTTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2698-CTGCTTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTTGTCATCGTCGGCAGCGTC</t>
+    <t>F2698-TCTCCTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2699-ATCACTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACTTGGATCGTCGGCAGCGTC</t>
+    <t>F2699-CATCTAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2700-TCTGCTTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTTCTTTCGTCGGCAGCGTC</t>
+    <t>F2700-ATCGTCGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2701-TAGATGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGATGGAGATCGTCGGCAGCGTC</t>
+    <t>F2701-TCAACGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2702-ATGATGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATGGTTGTCGTCGGCAGCGTC</t>
+    <t>F2702-GTACACCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2703-CGACCTACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACCTACTATCGTCGGCAGCGTC</t>
+    <t>F2703-GACATGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACATGTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2704-ACACAAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGGTCTCGTCGGCAGCGTC</t>
+    <t>F2704-ATGCTTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2705-TTGGTGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTGTCGATCGTCGGCAGCGTC</t>
+    <t>F2705-TCGACGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2706-AGGATCGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCGTGATCGTCGGCAGCGTC</t>
+    <t>F2706-TCAAGGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2707-CAACAGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGACGATCGTCGGCAGCGTC</t>
+    <t>F2707-TCCTCAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2708-GTACATCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACATCGAATCGTCGGCAGCGTC</t>
+    <t>F2708-TCTCCAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2709-ACGTCAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCAACAATCGTCGGCAGCGTC</t>
+    <t>F2709-AACCACGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCACGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2710-CTGACTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACTGAGTTCGTCGGCAGCGTC</t>
+    <t>F2710-ACGTAGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2711-AGGTCAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2711-CTCCACACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCACACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F2712-GAAGAGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGCTCATCGTCGGCAGCGTC</t>
+    <t>F2712-TCACTCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F2713-TCCAGTTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTTGATTCGTCGGCAGCGTC</t>
+    <t>F2713-AACTCAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F2714-GACCTTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTGGAATCGTCGGCAGCGTC</t>
+    <t>F2714-TGACAGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F2715-TCTCATGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCATGGATTCGTCGGCAGCGTC</t>
+    <t>F2715-CTGACAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F2716-GTTGCAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCAACCATCGTCGGCAGCGTC</t>
+    <t>F2716-GCACAGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACAGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2717-TTGTTCGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTCGAGATCGTCGGCAGCGTC</t>
+    <t>F2717-AGGATCATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2718-TCGTCTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCTAGCTTCGTCGGCAGCGTC</t>
+    <t>F2718-GGACTCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F2719-TGCTCCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCCATCTTCGTCGGCAGCGTC</t>
+    <t>F2719-GACATGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACATGCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F2720-AGGTTGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGCACATCGTCGGCAGCGTC</t>
+    <t>F2720-CGAACGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F2721-GCTACTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTAGTGTCGTCGGCAGCGTC</t>
+    <t>F2721-TGGTAGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTAGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F2722-TGCTCCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCCTCAATCGTCGGCAGCGTC</t>
+    <t>F2722-CATCTGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F2723-GACAGTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGTACTCTCGTCGGCAGCGTC</t>
+    <t>F2723-AGAGTCCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F2724-AACCAGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGTACATCGTCGGCAGCGTC</t>
+    <t>F2724-ACAACATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F2725-GAGTGGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGGTGAATCGTCGGCAGCGTC</t>
+    <t>F2725-TCTCTTGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F2726-AAGCAAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAAGTAGTCGTCGGCAGCGTC</t>
+    <t>F2726-CACTGATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGATCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F2727-CTCTCTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCTGCTTTCGTCGGCAGCGTC</t>
+    <t>F2727-GAGTACTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F2728-TACTCACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACCTTTCGTCGGCAGCGTC</t>
+    <t>F2728-GAACGACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F2729-TTCGTAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGCTCTCGTCGGCAGCGTC</t>
+    <t>F2729-ACTAGGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F2730-TACAGCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCAGTTTCGTCGGCAGCGTC</t>
+    <t>F2730-TACAGATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGATCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F2731-ATCATCTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCATCTCTCTCGTCGGCAGCGTC</t>
+    <t>F2731-GAAGGAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F2732-TTGGAGGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGGATCTCGTCGGCAGCGTC</t>
+    <t>F2732-GAACCAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F2733-CGTGTAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTAGCTTTCGTCGGCAGCGTC</t>
+    <t>F2733-TGCAGCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGCAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F2734-CTAGATCGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATCGAGTCGTCGGCAGCGTC</t>
+    <t>F2734-AAGTCATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F2735-AGCTTGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTGTTCTTCGTCGGCAGCGTC</t>
+    <t>F2735-TGACCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F2736-GATCTTCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTTCTCCTCGTCGGCAGCGTC</t>
+    <t>F2736-GAGACGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F2737-CATGTGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGTCTTTCGTCGGCAGCGTC</t>
+    <t>F2737-GTGATCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGATCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F2738-ATGCAGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGGTTCTCGTCGGCAGCGTC</t>
+    <t>F2738-AGGTAGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F2739-GCACTAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2739-GCTAGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F2740-ATCAAGCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGCTGCTCGTCGGCAGCGTC</t>
+    <t>F2740-GCAGATGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGATGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F2741-TGAGTACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTACTACTCGTCGGCAGCGTC</t>
+    <t>F2741-AACAAGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F2742-GTACTTGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTTGTGCTCGTCGGCAGCGTC</t>
+    <t>F2742-TAGTTCTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTCTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2743-TGACTACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTACCAGTCGTCGGCAGCGTC</t>
+    <t>F2743-AGTGCTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2744-TGGAGAACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGAACATTCGTCGGCAGCGTC</t>
+    <t>F2744-AACCAGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2745-AAGCAACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAACAGGTCGTCGGCAGCGTC</t>
+    <t>F2745-ACCTCAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2746-GTCTCATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCATGGATCGTCGGCAGCGTC</t>
+    <t>F2746-AGCTACCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2747-ACTGACAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGACAACGTCGTCGGCAGCGTC</t>
+    <t>F2747-ATGGAACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGAACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2748-TAGAAGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAAGTTGCTCGTCGGCAGCGTC</t>
+    <t>F2748-CTGGTTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2749-TCTAGAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGAACCTTCGTCGGCAGCGTC</t>
+    <t>F2749-TCATGCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGCACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2750-GAAGCATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCATGTGTCGTCGGCAGCGTC</t>
+    <t>F2750-GTAGTGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2751-TCTACACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACACTGATCGTCGGCAGCGTC</t>
+    <t>F2751-ACCTACAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTACAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2752-TGAGCTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTCACATCGTCGGCAGCGTC</t>
+    <t>F2752-GACACACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2753-GACGACTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGACTCAATCGTCGGCAGCGTC</t>
+    <t>F2753-GTCTTGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2754-CTGACTTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACTTGATTCGTCGGCAGCGTC</t>
+    <t>F2754-AGTACACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2755-CGTCACTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACTGATTCGTCGGCAGCGTC</t>
+    <t>F2755-CAGTCACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2756-CGTTGACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGACTAGTCGTCGGCAGCGTC</t>
+    <t>F2756-CTCCTAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2757-TTGGAGTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGTCACTCGTCGGCAGCGTC</t>
+    <t>F2757-TTGACTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2758-CAAGATGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGATGTTGTCGTCGGCAGCGTC</t>
+    <t>F2758-ACGTCAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2759-AACTGCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGCAGACTCGTCGGCAGCGTC</t>
+    <t>F2759-AGAAGTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2760-CCTTGTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTCTTCTCGTCGGCAGCGTC</t>
+    <t>F2760-TCGTCAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2761-GTTGTGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGGTTGTCGTCGGCAGCGTC</t>
+    <t>F2761-GTAGCAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2762-GCAAGATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGATCTCTCGTCGGCAGCGTC</t>
+    <t>F2762-GGTTGACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2763-AGATCAGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCAGACCTCGTCGGCAGCGTC</t>
+    <t>F2763-TGGAAGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2764-GTGGTCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTCAAGATCGTCGGCAGCGTC</t>
+    <t>F2764-TAGGACTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2765-CTTGAACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAACTAGTCGTCGGCAGCGTC</t>
+    <t>F2765-ATGGTGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2766-TGTCCAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCAGTTCTCGTCGGCAGCGTC</t>
+    <t>F2766-TCTGAGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2767-CGTACAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTACAGAGATCGTCGGCAGCGTC</t>
+    <t>F2767-CCTCTAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2768-GATGTTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTTCCATTCGTCGGCAGCGTC</t>
+    <t>F2768-AGACCAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACCAAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2769-CACTCCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTCCAACATCGTCGGCAGCGTC</t>
+    <t>F2769-GCTCGTTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCGTTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2770-AGGTCAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAGGAATCGTCGGCAGCGTC</t>
+    <t>F2770-CTTCGTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2771-TGTCCTACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTACCATCGTCGGCAGCGTC</t>
+    <t>F2771-ACATGCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2772-TCCAGTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTGACTTCGTCGGCAGCGTC</t>
+    <t>F2772-CTCGATCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2773-CTCGAGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAGATCTTCGTCGGCAGCGTC</t>
+    <t>F2773-TTGCTCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2774-TGTGGTGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTGTTGTCGTCGGCAGCGTC</t>
+    <t>F2774-CAGATCCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2775-GCTTGTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGTCTCATCGTCGGCAGCGTC</t>
+    <t>F2775-AGTCCTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2776-GAACAACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAACGTGTCGTCGGCAGCGTC</t>
+    <t>F2776-AGCTTCAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2777-AACAGAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGAGAACTCGTCGGCAGCGTC</t>
+    <t>F2777-TTCTGAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2778-AAGACAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACAGATGTCGTCGGCAGCGTC</t>
+    <t>F2778-GCTCAGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCAGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2779-CTACTCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCACGTTCGTCGGCAGCGTC</t>
+    <t>F2779-TGTCAGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2780-GGAGTTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTTGTTCTCGTCGGCAGCGTC</t>
+    <t>F2780-TGAGTCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2781-CATCAAGGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAAGGTGTCGTCGGCAGCGTC</t>
+    <t>F2781-ACAGACGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGACGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2782-AGTCCTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTCAGTTCGTCGGCAGCGTC</t>
+    <t>F2782-GACAGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2783-AGTCGTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTAGCATCGTCGGCAGCGTC</t>
+    <t>F2783-ACGTTCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2784-ACAGAACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAACGAATCGTCGGCAGCGTC</t>
+    <t>F2784-GCATCTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTGTCTTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
